--- a/xlsxanalize/data/калькулятор бара отчет.xlsx
+++ b/xlsxanalize/data/калькулятор бара отчет.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Приход</t>
   </si>
@@ -63,7 +63,10 @@
     <t>Итог</t>
   </si>
   <si>
-    <t>expense_name</t>
+    <t>имя прихода</t>
+  </si>
+  <si>
+    <t>имя расхода</t>
   </si>
 </sst>
 </file>
@@ -684,7 +687,7 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -697,11 +700,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -847,9 +856,7 @@
       <c r="F12" s="20"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="30" t="s">
-        <v>15</v>
-      </c>
+      <c r="A13" s="30"/>
       <c r="B13" s="12"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
